--- a/Interview/leetcode/Questions/FINAL 450.xlsx
+++ b/Interview/leetcode/Questions/FINAL 450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -550,15 +550,15 @@
     <t>level order traversal</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>Reverse Level Order traversal</t>
   </si>
   <si>
     <t>Height of a tree</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Diameter of a tree</t>
   </si>
   <si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>Construct Binary tree from Inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;-&gt;&gt;&gt;</t>
   </si>
   <si>
     <t>Find minimum swaps required to convert a Binary tree into BST</t>
@@ -3671,7 +3674,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="24">
       <c r="A171" s="6" t="s">
         <v>139</v>
       </c>
@@ -3682,7 +3685,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="24">
       <c r="A172" s="6" t="s">
         <v>139</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="24">
       <c r="A173" s="6" t="s">
         <v>139</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="24">
       <c r="A174" s="6" t="s">
         <v>139</v>
       </c>
@@ -3715,17 +3718,17 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="24.75">
       <c r="A176" s="1"/>
       <c r="B176" s="10"/>
       <c r="C176" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="24">
       <c r="A177" s="6" t="s">
         <v>176</v>
       </c>
@@ -3733,32 +3736,32 @@
         <v>177</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="24">
       <c r="A178" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="24">
       <c r="A179" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="24">
       <c r="A180" s="6" t="s">
         <v>176</v>
       </c>
@@ -3766,10 +3769,10 @@
         <v>181</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="24">
       <c r="A181" s="6" t="s">
         <v>176</v>
       </c>
@@ -3780,7 +3783,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="24">
       <c r="A182" s="6" t="s">
         <v>176</v>
       </c>
@@ -3788,10 +3791,10 @@
         <v>183</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="24">
       <c r="A183" s="6" t="s">
         <v>176</v>
       </c>
@@ -3799,10 +3802,10 @@
         <v>184</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="24">
       <c r="A184" s="6" t="s">
         <v>176</v>
       </c>
@@ -3810,10 +3813,10 @@
         <v>185</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="24">
       <c r="A185" s="6" t="s">
         <v>176</v>
       </c>
@@ -3824,7 +3827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="24">
       <c r="A186" s="6" t="s">
         <v>176</v>
       </c>
@@ -3832,10 +3835,10 @@
         <v>187</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="24">
       <c r="A187" s="6" t="s">
         <v>176</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="24">
       <c r="A188" s="6" t="s">
         <v>176</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="24">
       <c r="A189" s="6" t="s">
         <v>176</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="24">
       <c r="A190" s="6" t="s">
         <v>176</v>
       </c>
@@ -3879,7 +3882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="24">
       <c r="A191" s="6" t="s">
         <v>176</v>
       </c>
@@ -3942,7 +3945,7 @@
         <v>197</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="15.75">
@@ -3950,7 +3953,7 @@
         <v>176</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>48</v>
@@ -3961,7 +3964,7 @@
         <v>176</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>48</v>
@@ -3972,7 +3975,7 @@
         <v>176</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C199" s="9" t="s">
         <v>48</v>
@@ -3983,7 +3986,7 @@
         <v>176</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C200" s="9" t="s">
         <v>48</v>
@@ -3994,10 +3997,10 @@
         <v>176</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="15.75">
@@ -4005,10 +4008,10 @@
         <v>176</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="15.75">
@@ -4016,10 +4019,10 @@
         <v>176</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="15.75">
@@ -4027,7 +4030,7 @@
         <v>176</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C204" s="9" t="s">
         <v>48</v>
@@ -4038,7 +4041,7 @@
         <v>176</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>48</v>
@@ -4049,7 +4052,7 @@
         <v>176</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>48</v>
@@ -4060,7 +4063,7 @@
         <v>176</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C207" s="9" t="s">
         <v>48</v>
@@ -4071,7 +4074,7 @@
         <v>176</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C208" s="9" t="s">
         <v>48</v>
@@ -4082,7 +4085,7 @@
         <v>176</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C209" s="9" t="s">
         <v>48</v>
@@ -4093,7 +4096,7 @@
         <v>176</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>48</v>
@@ -4104,7 +4107,7 @@
         <v>176</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C211" s="9" t="s">
         <v>48</v>
@@ -4122,10 +4125,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="15.75">
       <c r="A214" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C214" s="9" t="s">
         <v>48</v>
@@ -4133,10 +4136,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="15.75">
       <c r="A215" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C215" s="9" t="s">
         <v>48</v>
@@ -4144,10 +4147,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="15.75">
       <c r="A216" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C216" s="9" t="s">
         <v>48</v>
@@ -4155,10 +4158,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="15.75">
       <c r="A217" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C217" s="9" t="s">
         <v>48</v>
@@ -4166,10 +4169,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="15.75">
       <c r="A218" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>48</v>
@@ -4177,10 +4180,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="15.75">
       <c r="A219" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C219" s="9" t="s">
         <v>48</v>
@@ -4188,10 +4191,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="15.75">
       <c r="A220" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C220" s="9" t="s">
         <v>48</v>
@@ -4199,10 +4202,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="15.75">
       <c r="A221" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C221" s="9" t="s">
         <v>48</v>
@@ -4210,10 +4213,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="15.75">
       <c r="A222" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C222" s="9" t="s">
         <v>48</v>
@@ -4221,10 +4224,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="15.75">
       <c r="A223" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C223" s="9" t="s">
         <v>48</v>
@@ -4232,10 +4235,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="15.75">
       <c r="A224" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C224" s="9" t="s">
         <v>48</v>
@@ -4243,10 +4246,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="15.75">
       <c r="A225" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C225" s="9" t="s">
         <v>48</v>
@@ -4254,10 +4257,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="15.75">
       <c r="A226" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C226" s="9" t="s">
         <v>48</v>
@@ -4265,10 +4268,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="15.75">
       <c r="A227" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C227" s="9" t="s">
         <v>48</v>
@@ -4276,10 +4279,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="15.75">
       <c r="A228" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C228" s="9" t="s">
         <v>48</v>
@@ -4287,10 +4290,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="15.75">
       <c r="A229" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>48</v>
@@ -4298,10 +4301,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="15.75">
       <c r="A230" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C230" s="9" t="s">
         <v>48</v>
@@ -4309,10 +4312,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="15.75">
       <c r="A231" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C231" s="9" t="s">
         <v>48</v>
@@ -4320,10 +4323,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="15.75">
       <c r="A232" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C232" s="9" t="s">
         <v>48</v>
@@ -4331,10 +4334,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="15.75">
       <c r="A233" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C233" s="9" t="s">
         <v>48</v>
@@ -4342,10 +4345,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="15.75">
       <c r="A234" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C234" s="9" t="s">
         <v>48</v>
@@ -4353,10 +4356,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="15.75">
       <c r="A235" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C235" s="9" t="s">
         <v>48</v>
@@ -4374,10 +4377,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="15.75">
       <c r="A238" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C238" s="9" t="s">
         <v>48</v>
@@ -4385,10 +4388,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="15.75">
       <c r="A239" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>48</v>
@@ -4396,10 +4399,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="15.75">
       <c r="A240" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>48</v>
@@ -4407,10 +4410,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="15.75">
       <c r="A241" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>48</v>
@@ -4418,10 +4421,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="15.75">
       <c r="A242" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>48</v>
@@ -4429,10 +4432,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="15.75">
       <c r="A243" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>48</v>
@@ -4440,10 +4443,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="15.75">
       <c r="A244" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>48</v>
@@ -4451,10 +4454,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="15.75">
       <c r="A245" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C245" s="9" t="s">
         <v>48</v>
@@ -4462,10 +4465,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="15.75">
       <c r="A246" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C246" s="9" t="s">
         <v>48</v>
@@ -4473,10 +4476,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="15.75">
       <c r="A247" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C247" s="9" t="s">
         <v>48</v>
@@ -4484,10 +4487,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="15.75">
       <c r="A248" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C248" s="9" t="s">
         <v>48</v>
@@ -4495,10 +4498,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="15.75">
       <c r="A249" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C249" s="9" t="s">
         <v>48</v>
@@ -4506,10 +4509,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="15.75">
       <c r="A250" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C250" s="9" t="s">
         <v>48</v>
@@ -4517,10 +4520,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="15.75">
       <c r="A251" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C251" s="9" t="s">
         <v>48</v>
@@ -4528,10 +4531,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="15.75">
       <c r="A252" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C252" s="9" t="s">
         <v>48</v>
@@ -4539,10 +4542,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="15.75">
       <c r="A253" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C253" s="9" t="s">
         <v>48</v>
@@ -4550,10 +4553,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="15.75">
       <c r="A254" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C254" s="9" t="s">
         <v>48</v>
@@ -4561,10 +4564,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="15.75">
       <c r="A255" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>48</v>
@@ -4572,10 +4575,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="15.75">
       <c r="A256" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C256" s="9" t="s">
         <v>48</v>
@@ -4583,10 +4586,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="15.75">
       <c r="A257" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C257" s="9" t="s">
         <v>48</v>
@@ -4594,10 +4597,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="15.75">
       <c r="A258" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C258" s="9" t="s">
         <v>48</v>
@@ -4605,10 +4608,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="15.75">
       <c r="A259" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C259" s="9" t="s">
         <v>48</v>
@@ -4616,10 +4619,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="15.75">
       <c r="A260" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C260" s="9" t="s">
         <v>48</v>
@@ -4627,10 +4630,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="15.75">
       <c r="A261" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C261" s="9" t="s">
         <v>48</v>
@@ -4638,10 +4641,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="15.75">
       <c r="A262" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C262" s="9" t="s">
         <v>48</v>
@@ -4649,10 +4652,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="15.75">
       <c r="A263" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>48</v>
@@ -4660,10 +4663,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="15.75">
       <c r="A264" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C264" s="9" t="s">
         <v>48</v>
@@ -4671,10 +4674,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="15.75">
       <c r="A265" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C265" s="9" t="s">
         <v>48</v>
@@ -4682,10 +4685,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="15.75">
       <c r="A266" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C266" s="9" t="s">
         <v>48</v>
@@ -4693,10 +4696,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="15.75">
       <c r="A267" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C267" s="9" t="s">
         <v>48</v>
@@ -4704,10 +4707,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="15.75">
       <c r="A268" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>48</v>
@@ -4715,10 +4718,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="15.75">
       <c r="A269" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C269" s="9" t="s">
         <v>48</v>
@@ -4726,10 +4729,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="15.75">
       <c r="A270" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C270" s="9" t="s">
         <v>48</v>
@@ -4737,7 +4740,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="15.75">
       <c r="A271" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>92</v>
@@ -4748,10 +4751,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="15.75">
       <c r="A272" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C272" s="9" t="s">
         <v>48</v>
@@ -4769,10 +4772,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="15.75">
       <c r="A275" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C275" s="9" t="s">
         <v>48</v>
@@ -4780,10 +4783,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="15.75">
       <c r="A276" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C276" s="9" t="s">
         <v>48</v>
@@ -4791,10 +4794,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="15.75">
       <c r="A277" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C277" s="9" t="s">
         <v>48</v>
@@ -4802,10 +4805,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="15.75">
       <c r="A278" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>48</v>
@@ -4813,10 +4816,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="15.75">
       <c r="A279" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C279" s="9" t="s">
         <v>48</v>
@@ -4824,10 +4827,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="15.75">
       <c r="A280" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C280" s="9" t="s">
         <v>48</v>
@@ -4835,10 +4838,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="15.75">
       <c r="A281" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>48</v>
@@ -4846,10 +4849,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="15.75">
       <c r="A282" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>48</v>
@@ -4857,10 +4860,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="15.75">
       <c r="A283" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>48</v>
@@ -4868,10 +4871,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="15.75">
       <c r="A284" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>48</v>
@@ -4879,10 +4882,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="15.75">
       <c r="A285" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>48</v>
@@ -4890,10 +4893,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="15.75">
       <c r="A286" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C286" s="9" t="s">
         <v>48</v>
@@ -4901,10 +4904,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="15.75">
       <c r="A287" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C287" s="9" t="s">
         <v>48</v>
@@ -4912,10 +4915,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="15.75">
       <c r="A288" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C288" s="9" t="s">
         <v>48</v>
@@ -4923,10 +4926,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="15.75">
       <c r="A289" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C289" s="9" t="s">
         <v>48</v>
@@ -4934,10 +4937,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="15.75">
       <c r="A290" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C290" s="9" t="s">
         <v>48</v>
@@ -4945,10 +4948,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="15.75">
       <c r="A291" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>48</v>
@@ -4956,10 +4959,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="15.75">
       <c r="A292" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>48</v>
@@ -4967,10 +4970,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="15.75">
       <c r="A293" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>48</v>
@@ -4988,10 +4991,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="15.75">
       <c r="A296" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C296" s="9" t="s">
         <v>48</v>
@@ -4999,10 +5002,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="15.75">
       <c r="A297" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C297" s="9" t="s">
         <v>48</v>
@@ -5010,10 +5013,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="15.75">
       <c r="A298" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C298" s="9" t="s">
         <v>48</v>
@@ -5021,10 +5024,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="15.75">
       <c r="A299" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C299" s="9" t="s">
         <v>48</v>
@@ -5032,10 +5035,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="15.75">
       <c r="A300" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C300" s="9" t="s">
         <v>48</v>
@@ -5043,10 +5046,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="15.75">
       <c r="A301" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C301" s="9" t="s">
         <v>48</v>
@@ -5054,10 +5057,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="15.75">
       <c r="A302" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C302" s="9" t="s">
         <v>48</v>
@@ -5065,10 +5068,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="15.75">
       <c r="A303" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C303" s="9" t="s">
         <v>48</v>
@@ -5076,10 +5079,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="15.75">
       <c r="A304" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C304" s="9" t="s">
         <v>48</v>
@@ -5087,10 +5090,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="15.75">
       <c r="A305" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C305" s="9" t="s">
         <v>48</v>
@@ -5098,10 +5101,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="15.75">
       <c r="A306" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C306" s="9" t="s">
         <v>48</v>
@@ -5109,10 +5112,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="15.75">
       <c r="A307" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C307" s="9" t="s">
         <v>48</v>
@@ -5120,10 +5123,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="15.75">
       <c r="A308" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C308" s="9" t="s">
         <v>48</v>
@@ -5131,10 +5134,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="15.75">
       <c r="A309" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C309" s="9" t="s">
         <v>48</v>
@@ -5142,10 +5145,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="15.75">
       <c r="A310" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C310" s="9" t="s">
         <v>48</v>
@@ -5153,10 +5156,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="15.75">
       <c r="A311" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C311" s="9" t="s">
         <v>48</v>
@@ -5164,10 +5167,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="15.75">
       <c r="A312" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C312" s="9" t="s">
         <v>48</v>
@@ -5175,10 +5178,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="15.75">
       <c r="A313" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C313" s="9" t="s">
         <v>48</v>
@@ -5186,10 +5189,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="15.75">
       <c r="A314" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C314" s="9" t="s">
         <v>48</v>
@@ -5197,10 +5200,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="15.75">
       <c r="A315" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C315" s="9" t="s">
         <v>48</v>
@@ -5208,10 +5211,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="15.75">
       <c r="A316" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C316" s="9" t="s">
         <v>48</v>
@@ -5219,10 +5222,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="15.75">
       <c r="A317" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C317" s="9" t="s">
         <v>48</v>
@@ -5230,10 +5233,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="15.75">
       <c r="A318" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C318" s="9" t="s">
         <v>48</v>
@@ -5241,10 +5244,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="15.75">
       <c r="A319" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C319" s="9" t="s">
         <v>48</v>
@@ -5252,10 +5255,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="15.75">
       <c r="A320" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C320" s="9" t="s">
         <v>48</v>
@@ -5263,10 +5266,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="15.75">
       <c r="A321" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C321" s="9" t="s">
         <v>48</v>
@@ -5274,10 +5277,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="15.75">
       <c r="A322" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C322" s="9" t="s">
         <v>48</v>
@@ -5285,10 +5288,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="15.75">
       <c r="A323" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C323" s="9" t="s">
         <v>48</v>
@@ -5296,10 +5299,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="15.75">
       <c r="A324" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C324" s="9" t="s">
         <v>48</v>
@@ -5307,10 +5310,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="15.75">
       <c r="A325" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C325" s="9" t="s">
         <v>48</v>
@@ -5318,10 +5321,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="15.75">
       <c r="A326" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C326" s="9" t="s">
         <v>48</v>
@@ -5329,10 +5332,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="15.75">
       <c r="A327" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C327" s="9" t="s">
         <v>48</v>
@@ -5340,10 +5343,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="15.75">
       <c r="A328" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C328" s="9" t="s">
         <v>48</v>
@@ -5351,10 +5354,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="15.75">
       <c r="A329" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C329" s="9" t="s">
         <v>48</v>
@@ -5362,10 +5365,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="15.75">
       <c r="A330" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C330" s="9" t="s">
         <v>48</v>
@@ -5373,10 +5376,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="15.75">
       <c r="A331" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C331" s="9" t="s">
         <v>48</v>
@@ -5384,10 +5387,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="15.75">
       <c r="A332" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C332" s="9" t="s">
         <v>48</v>
@@ -5395,10 +5398,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="15.75">
       <c r="A333" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C333" s="9" t="s">
         <v>48</v>
@@ -5416,10 +5419,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="15.75">
       <c r="A336" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C336" s="9" t="s">
         <v>48</v>
@@ -5427,10 +5430,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="15.75">
       <c r="A337" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C337" s="9" t="s">
         <v>48</v>
@@ -5438,10 +5441,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="15.75">
       <c r="A338" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C338" s="9" t="s">
         <v>48</v>
@@ -5449,10 +5452,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="15.75">
       <c r="A339" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C339" s="9" t="s">
         <v>48</v>
@@ -5460,10 +5463,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="15.75">
       <c r="A340" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C340" s="9" t="s">
         <v>48</v>
@@ -5471,10 +5474,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="15.75">
       <c r="A341" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C341" s="9" t="s">
         <v>48</v>
@@ -5482,10 +5485,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="15.75">
       <c r="A342" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C342" s="9" t="s">
         <v>48</v>
@@ -5493,10 +5496,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="15.75">
       <c r="A343" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C343" s="9" t="s">
         <v>48</v>
@@ -5504,10 +5507,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="15.75">
       <c r="A344" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C344" s="9" t="s">
         <v>48</v>
@@ -5515,10 +5518,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="15.75">
       <c r="A345" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C345" s="9" t="s">
         <v>48</v>
@@ -5526,10 +5529,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="15.75">
       <c r="A346" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C346" s="9" t="s">
         <v>48</v>
@@ -5537,10 +5540,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="15.75">
       <c r="A347" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C347" s="9" t="s">
         <v>48</v>
@@ -5548,10 +5551,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="15.75">
       <c r="A348" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C348" s="9" t="s">
         <v>48</v>
@@ -5559,10 +5562,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="15.75">
       <c r="A349" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C349" s="9" t="s">
         <v>48</v>
@@ -5570,10 +5573,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="15.75">
       <c r="A350" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C350" s="9" t="s">
         <v>48</v>
@@ -5581,10 +5584,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="15.75">
       <c r="A351" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C351" s="9" t="s">
         <v>48</v>
@@ -5592,10 +5595,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="15.75">
       <c r="A352" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C352" s="9" t="s">
         <v>48</v>
@@ -5603,10 +5606,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="15.75">
       <c r="A353" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>48</v>
@@ -5624,10 +5627,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="15.75">
       <c r="A356" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C356" s="9" t="s">
         <v>48</v>
@@ -5635,10 +5638,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="15.75">
       <c r="A357" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C357" s="9" t="s">
         <v>48</v>
@@ -5646,10 +5649,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="15.75">
       <c r="A358" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C358" s="9" t="s">
         <v>48</v>
@@ -5657,10 +5660,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="15.75">
       <c r="A359" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C359" s="9" t="s">
         <v>48</v>
@@ -5668,10 +5671,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="15.75">
       <c r="A360" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C360" s="9" t="s">
         <v>48</v>
@@ -5679,10 +5682,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="15.75">
       <c r="A361" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C361" s="9" t="s">
         <v>48</v>
@@ -5690,10 +5693,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="15.75">
       <c r="A362" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C362" s="9" t="s">
         <v>48</v>
@@ -5701,10 +5704,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="15.75">
       <c r="A363" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C363" s="9" t="s">
         <v>48</v>
@@ -5712,10 +5715,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="15.75">
       <c r="A364" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C364" s="9" t="s">
         <v>48</v>
@@ -5723,10 +5726,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="15.75">
       <c r="A365" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C365" s="9" t="s">
         <v>48</v>
@@ -5734,10 +5737,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="15.75">
       <c r="A366" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C366" s="9" t="s">
         <v>48</v>
@@ -5745,10 +5748,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="15.75">
       <c r="A367" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C367" s="9" t="s">
         <v>48</v>
@@ -5756,10 +5759,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="15.75">
       <c r="A368" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C368" s="9" t="s">
         <v>48</v>
@@ -5767,10 +5770,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="15.75">
       <c r="A369" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C369" s="9" t="s">
         <v>48</v>
@@ -5778,10 +5781,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="15.75">
       <c r="A370" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C370" s="9" t="s">
         <v>48</v>
@@ -5789,10 +5792,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="15.75">
       <c r="A371" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C371" s="9" t="s">
         <v>48</v>
@@ -5800,10 +5803,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="15.75">
       <c r="A372" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C372" s="9" t="s">
         <v>48</v>
@@ -5811,10 +5814,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="15.75">
       <c r="A373" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C373" s="9" t="s">
         <v>48</v>
@@ -5822,10 +5825,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="15.75">
       <c r="A374" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C374" s="9" t="s">
         <v>48</v>
@@ -5833,10 +5836,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="15.75">
       <c r="A375" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C375" s="9" t="s">
         <v>48</v>
@@ -5844,10 +5847,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="15.75">
       <c r="A376" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C376" s="9" t="s">
         <v>48</v>
@@ -5855,10 +5858,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="15.75">
       <c r="A377" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C377" s="9" t="s">
         <v>48</v>
@@ -5866,10 +5869,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="15.75">
       <c r="A378" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C378" s="9" t="s">
         <v>48</v>
@@ -5877,10 +5880,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="15.75">
       <c r="A379" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C379" s="9" t="s">
         <v>48</v>
@@ -5888,10 +5891,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="15.75">
       <c r="A380" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C380" s="9" t="s">
         <v>48</v>
@@ -5899,10 +5902,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="15.75">
       <c r="A381" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C381" s="9" t="s">
         <v>48</v>
@@ -5910,10 +5913,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="15.75">
       <c r="A382" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C382" s="9" t="s">
         <v>48</v>
@@ -5921,10 +5924,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="15.75">
       <c r="A383" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C383" s="9" t="s">
         <v>48</v>
@@ -5932,10 +5935,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="15.75">
       <c r="A384" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C384" s="9" t="s">
         <v>48</v>
@@ -5943,10 +5946,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="15.75">
       <c r="A385" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C385" s="9" t="s">
         <v>48</v>
@@ -5954,10 +5957,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="15.75">
       <c r="A386" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C386" s="9" t="s">
         <v>48</v>
@@ -5965,10 +5968,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="15.75">
       <c r="A387" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C387" s="9" t="s">
         <v>48</v>
@@ -5976,10 +5979,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="15.75">
       <c r="A388" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C388" s="9" t="s">
         <v>48</v>
@@ -5987,10 +5990,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="15.75">
       <c r="A389" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C389" s="9" t="s">
         <v>48</v>
@@ -5998,10 +6001,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="15.75">
       <c r="A390" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C390" s="9" t="s">
         <v>48</v>
@@ -6009,10 +6012,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="15.75">
       <c r="A391" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C391" s="9" t="s">
         <v>48</v>
@@ -6020,10 +6023,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="15.75">
       <c r="A392" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C392" s="9" t="s">
         <v>48</v>
@@ -6031,10 +6034,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="15.75">
       <c r="A393" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C393" s="9" t="s">
         <v>48</v>
@@ -6042,10 +6045,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="15.75">
       <c r="A394" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C394" s="9" t="s">
         <v>48</v>
@@ -6053,10 +6056,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="15.75">
       <c r="A395" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C395" s="9" t="s">
         <v>48</v>
@@ -6064,10 +6067,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="15.75">
       <c r="A396" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C396" s="9" t="s">
         <v>48</v>
@@ -6075,10 +6078,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="15.75">
       <c r="A397" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C397" s="9" t="s">
         <v>48</v>
@@ -6086,10 +6089,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="15.75">
       <c r="A398" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C398" s="9" t="s">
         <v>48</v>
@@ -6097,10 +6100,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="15.75">
       <c r="A399" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C399" s="9" t="s">
         <v>48</v>
@@ -6118,10 +6121,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="15.75">
       <c r="A402" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C402" s="9" t="s">
         <v>48</v>
@@ -6129,10 +6132,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="15.75">
       <c r="A403" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C403" s="9" t="s">
         <v>48</v>
@@ -6140,10 +6143,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="15.75">
       <c r="A404" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C404" s="9" t="s">
         <v>48</v>
@@ -6151,7 +6154,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="15.75">
       <c r="A405" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B405" s="7" t="s">
         <v>94</v>
@@ -6162,10 +6165,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="15.75">
       <c r="A406" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C406" s="9" t="s">
         <v>48</v>
@@ -6173,10 +6176,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="15.75">
       <c r="A407" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C407" s="9" t="s">
         <v>48</v>
@@ -6194,10 +6197,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="15.75">
       <c r="A410" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C410" s="9" t="s">
         <v>48</v>
@@ -6205,10 +6208,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="15.75">
       <c r="A411" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C411" s="9" t="s">
         <v>48</v>
@@ -6216,10 +6219,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="15.75">
       <c r="A412" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C412" s="9" t="s">
         <v>48</v>
@@ -6227,10 +6230,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="15.75">
       <c r="A413" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C413" s="9" t="s">
         <v>48</v>
@@ -6238,10 +6241,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="15.75">
       <c r="A414" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C414" s="9" t="s">
         <v>48</v>
@@ -6249,10 +6252,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="15.75">
       <c r="A415" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C415" s="9" t="s">
         <v>48</v>
@@ -6260,10 +6263,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="15.75">
       <c r="A416" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C416" s="9" t="s">
         <v>48</v>
@@ -6271,10 +6274,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="15.75">
       <c r="A417" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C417" s="9" t="s">
         <v>48</v>
@@ -6282,10 +6285,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="15.75">
       <c r="A418" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C418" s="9" t="s">
         <v>48</v>
@@ -6293,10 +6296,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="15.75">
       <c r="A419" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C419" s="9" t="s">
         <v>48</v>
@@ -6304,10 +6307,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="15.75">
       <c r="A420" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C420" s="9" t="s">
         <v>48</v>
@@ -6315,10 +6318,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="15.75">
       <c r="A421" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C421" s="9" t="s">
         <v>48</v>
@@ -6326,10 +6329,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="15.75">
       <c r="A422" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C422" s="9" t="s">
         <v>48</v>
@@ -6337,10 +6340,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="15.75">
       <c r="A423" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C423" s="9" t="s">
         <v>48</v>
@@ -6348,10 +6351,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="15.75">
       <c r="A424" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C424" s="9" t="s">
         <v>48</v>
@@ -6359,10 +6362,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="15.75">
       <c r="A425" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C425" s="9" t="s">
         <v>48</v>
@@ -6370,10 +6373,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="15.75">
       <c r="A426" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C426" s="9" t="s">
         <v>48</v>
@@ -6381,10 +6384,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="15.75">
       <c r="A427" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C427" s="9" t="s">
         <v>48</v>
@@ -6392,10 +6395,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="15.75">
       <c r="A428" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C428" s="9" t="s">
         <v>48</v>
@@ -6403,10 +6406,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="15.75">
       <c r="A429" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C429" s="9" t="s">
         <v>48</v>
@@ -6414,10 +6417,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="15.75">
       <c r="A430" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C430" s="9" t="s">
         <v>48</v>
@@ -6425,10 +6428,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="15.75">
       <c r="A431" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C431" s="9" t="s">
         <v>48</v>
@@ -6436,10 +6439,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="15.75">
       <c r="A432" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C432" s="9" t="s">
         <v>48</v>
@@ -6447,10 +6450,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="15.75">
       <c r="A433" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C433" s="9" t="s">
         <v>48</v>
@@ -6458,10 +6461,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="15.75">
       <c r="A434" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C434" s="9" t="s">
         <v>48</v>
@@ -6469,10 +6472,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="15.75">
       <c r="A435" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C435" s="9" t="s">
         <v>48</v>
@@ -6480,10 +6483,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="15.75">
       <c r="A436" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C436" s="9" t="s">
         <v>48</v>
@@ -6491,10 +6494,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="15.75">
       <c r="A437" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C437" s="9" t="s">
         <v>48</v>
@@ -6502,10 +6505,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="15.75">
       <c r="A438" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C438" s="9" t="s">
         <v>48</v>
@@ -6513,10 +6516,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="15.75">
       <c r="A439" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C439" s="9" t="s">
         <v>48</v>
@@ -6524,10 +6527,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="15.75">
       <c r="A440" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C440" s="9" t="s">
         <v>48</v>
@@ -6535,10 +6538,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="15.75">
       <c r="A441" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C441" s="9" t="s">
         <v>48</v>
@@ -6546,10 +6549,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="15.75">
       <c r="A442" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C442" s="9" t="s">
         <v>48</v>
@@ -6557,10 +6560,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="15.75">
       <c r="A443" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C443" s="9" t="s">
         <v>48</v>
@@ -6568,10 +6571,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="15.75">
       <c r="A444" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C444" s="9" t="s">
         <v>48</v>
@@ -6579,10 +6582,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="15.75">
       <c r="A445" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C445" s="9" t="s">
         <v>48</v>
@@ -6590,10 +6593,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="15.75">
       <c r="A446" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C446" s="9" t="s">
         <v>48</v>
@@ -6601,10 +6604,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="15.75">
       <c r="A447" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C447" s="9" t="s">
         <v>48</v>
@@ -6612,10 +6615,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="15.75">
       <c r="A448" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C448" s="9" t="s">
         <v>48</v>
@@ -6623,10 +6626,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="15.75">
       <c r="A449" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C449" s="9" t="s">
         <v>48</v>
@@ -6634,10 +6637,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="15.75">
       <c r="A450" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C450" s="9" t="s">
         <v>48</v>
@@ -6645,10 +6648,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="15.75">
       <c r="A451" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C451" s="9" t="s">
         <v>48</v>
@@ -6656,10 +6659,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="15.75">
       <c r="A452" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C452" s="9" t="s">
         <v>48</v>
@@ -6667,10 +6670,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="15.75">
       <c r="A453" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C453" s="9" t="s">
         <v>48</v>
@@ -6678,10 +6681,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="15.75">
       <c r="A454" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C454" s="9" t="s">
         <v>48</v>
@@ -6689,10 +6692,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="15.75">
       <c r="A455" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C455" s="9" t="s">
         <v>48</v>
@@ -6700,10 +6703,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="15.75">
       <c r="A456" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C456" s="9" t="s">
         <v>48</v>
@@ -6711,10 +6714,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="15.75">
       <c r="A457" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C457" s="9" t="s">
         <v>48</v>
@@ -6722,10 +6725,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="15.75">
       <c r="A458" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C458" s="9" t="s">
         <v>48</v>
@@ -6733,10 +6736,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="15.75">
       <c r="A459" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C459" s="9" t="s">
         <v>48</v>
@@ -6744,10 +6747,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="15.75">
       <c r="A460" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C460" s="9" t="s">
         <v>48</v>
@@ -6755,10 +6758,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="15.75">
       <c r="A461" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C461" s="9" t="s">
         <v>48</v>
@@ -6766,10 +6769,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="15.75">
       <c r="A462" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C462" s="9" t="s">
         <v>48</v>
@@ -6777,10 +6780,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="15.75">
       <c r="A463" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C463" s="9" t="s">
         <v>48</v>
@@ -6788,10 +6791,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="15.75">
       <c r="A464" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C464" s="9" t="s">
         <v>48</v>
@@ -6799,10 +6802,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="15.75">
       <c r="A465" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C465" s="9" t="s">
         <v>48</v>
@@ -6810,10 +6813,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="15.75">
       <c r="A466" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C466" s="9" t="s">
         <v>48</v>
@@ -6821,10 +6824,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="15.75">
       <c r="A467" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C467" s="9" t="s">
         <v>48</v>
@@ -6832,10 +6835,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="15.75">
       <c r="A468" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C468" s="9" t="s">
         <v>48</v>
@@ -6843,10 +6846,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="15.75">
       <c r="A469" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C469" s="9" t="s">
         <v>48</v>
@@ -6864,87 +6867,87 @@
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="15.75">
       <c r="A472" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="15.75">
       <c r="A473" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="15.75">
       <c r="A474" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="15.75">
       <c r="A475" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="15.75">
       <c r="A476" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="15.75">
       <c r="A477" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="15.75">
       <c r="A478" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="15.75">
       <c r="A479" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C479" s="9" t="s">
         <v>48</v>
@@ -6952,10 +6955,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="15.75">
       <c r="A480" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C480" s="9" t="s">
         <v>48</v>
@@ -6963,13 +6966,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="15.75">
       <c r="A481" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="15.75">

--- a/Interview/leetcode/Questions/FINAL 450.xlsx
+++ b/Interview/leetcode/Questions/FINAL 450.xlsx
@@ -601,6 +601,9 @@
     <t>Construct Binary Tree from String with Bracket Representation</t>
   </si>
   <si>
+    <t>&lt;&lt;&lt;-&gt;&gt;&gt;</t>
+  </si>
+  <si>
     <t>Convert Binary tree into Doubly Linked List</t>
   </si>
   <si>
@@ -608,9 +611,6 @@
   </si>
   <si>
     <t>Construct Binary tree from Inorder and preorder traversal</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;-&gt;&gt;&gt;</t>
   </si>
   <si>
     <t>Find minimum swaps required to convert a Binary tree into BST</t>
@@ -3747,7 +3747,7 @@
         <v>179</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="24">
@@ -3868,7 +3868,7 @@
         <v>190</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="24">
@@ -3890,10 +3890,10 @@
         <v>192</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="24">
       <c r="A192" s="6" t="s">
         <v>176</v>
       </c>
@@ -3901,10 +3901,10 @@
         <v>193</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="24">
       <c r="A193" s="6" t="s">
         <v>176</v>
       </c>
@@ -3912,43 +3912,43 @@
         <v>194</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="24">
       <c r="A194" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B194" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C194" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C194" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="15.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="24">
       <c r="A195" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="24">
       <c r="A196" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="24">
       <c r="A197" s="6" t="s">
         <v>176</v>
       </c>
@@ -3956,10 +3956,10 @@
         <v>199</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="24">
       <c r="A198" s="6" t="s">
         <v>176</v>
       </c>
@@ -3967,10 +3967,10 @@
         <v>200</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="24">
       <c r="A199" s="6" t="s">
         <v>176</v>
       </c>
@@ -3978,10 +3978,10 @@
         <v>201</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="24">
       <c r="A200" s="6" t="s">
         <v>176</v>
       </c>
@@ -3989,10 +3989,10 @@
         <v>202</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="24">
       <c r="A201" s="6" t="s">
         <v>176</v>
       </c>
@@ -4000,10 +4000,10 @@
         <v>203</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="24">
       <c r="A202" s="6" t="s">
         <v>176</v>
       </c>
@@ -4011,10 +4011,10 @@
         <v>204</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="24">
       <c r="A203" s="6" t="s">
         <v>176</v>
       </c>
@@ -4022,10 +4022,10 @@
         <v>205</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="24">
       <c r="A204" s="6" t="s">
         <v>176</v>
       </c>
@@ -4033,10 +4033,10 @@
         <v>206</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="24">
       <c r="A205" s="6" t="s">
         <v>176</v>
       </c>
@@ -4044,10 +4044,10 @@
         <v>207</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="24">
       <c r="A206" s="6" t="s">
         <v>176</v>
       </c>
@@ -4055,10 +4055,10 @@
         <v>208</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="24">
       <c r="A207" s="6" t="s">
         <v>176</v>
       </c>
@@ -4066,10 +4066,10 @@
         <v>209</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="24">
       <c r="A208" s="6" t="s">
         <v>176</v>
       </c>
@@ -4077,10 +4077,10 @@
         <v>210</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="24">
       <c r="A209" s="6" t="s">
         <v>176</v>
       </c>
@@ -4088,10 +4088,10 @@
         <v>211</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="24">
       <c r="A210" s="6" t="s">
         <v>176</v>
       </c>
@@ -4099,10 +4099,10 @@
         <v>212</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="24">
       <c r="A211" s="6" t="s">
         <v>176</v>
       </c>
@@ -4110,20 +4110,20 @@
         <v>213</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="25.5">
       <c r="A212" s="6"/>
       <c r="B212" s="10"/>
       <c r="C212" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="25.5">
       <c r="A213" s="6"/>
       <c r="B213" s="10"/>
       <c r="C213" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="24">
       <c r="A214" s="6" t="s">
         <v>214</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="24">
       <c r="A215" s="6" t="s">
         <v>214</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="24">
       <c r="A216" s="6" t="s">
         <v>214</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="24">
       <c r="A217" s="6" t="s">
         <v>214</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="24">
       <c r="A218" s="6" t="s">
         <v>214</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>461</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="15.75">
@@ -6884,7 +6884,7 @@
         <v>462</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="15.75">
@@ -6895,7 +6895,7 @@
         <v>463</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="15.75">
@@ -6906,7 +6906,7 @@
         <v>464</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="15.75">
@@ -6917,7 +6917,7 @@
         <v>465</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="15.75">
@@ -6928,7 +6928,7 @@
         <v>466</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="15.75">
@@ -6939,7 +6939,7 @@
         <v>467</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="15.75">
@@ -6972,7 +6972,7 @@
         <v>470</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="15.75">

--- a/Interview/leetcode/Questions/FINAL 450.xlsx
+++ b/Interview/leetcode/Questions/FINAL 450.xlsx
@@ -601,13 +601,13 @@
     <t>Construct Binary Tree from String with Bracket Representation</t>
   </si>
   <si>
+    <t>Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Sum tree</t>
+  </si>
+  <si>
     <t>&lt;&lt;&lt;-&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into Doubly Linked List</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into Sum tree</t>
   </si>
   <si>
     <t>Construct Binary tree from Inorder and preorder traversal</t>
@@ -3849,7 +3849,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="24.75">
       <c r="A188" s="6" t="s">
         <v>176</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="24.75">
       <c r="A189" s="6" t="s">
         <v>176</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="24.75">
       <c r="A190" s="6" t="s">
         <v>176</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="24.75">
       <c r="A191" s="6" t="s">
         <v>176</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="24.75">
       <c r="A192" s="6" t="s">
         <v>176</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="24.75">
       <c r="A193" s="6" t="s">
         <v>176</v>
       </c>
@@ -3912,32 +3912,32 @@
         <v>194</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="24">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="24.75">
       <c r="A194" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="24">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="24.75">
       <c r="A195" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B195" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C195" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C195" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="24">
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="24.75">
       <c r="A196" s="6" t="s">
         <v>176</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="24.75">
       <c r="A197" s="6" t="s">
         <v>176</v>
       </c>
@@ -3956,10 +3956,10 @@
         <v>199</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="24">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="24.75">
       <c r="A198" s="6" t="s">
         <v>176</v>
       </c>
@@ -3967,10 +3967,10 @@
         <v>200</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="24">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="24.75">
       <c r="A199" s="6" t="s">
         <v>176</v>
       </c>
@@ -3978,10 +3978,10 @@
         <v>201</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="24">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="24.75">
       <c r="A200" s="6" t="s">
         <v>176</v>
       </c>
@@ -3989,10 +3989,10 @@
         <v>202</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="24">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="24.75">
       <c r="A201" s="6" t="s">
         <v>176</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="24.75">
       <c r="A202" s="6" t="s">
         <v>176</v>
       </c>
@@ -4011,10 +4011,10 @@
         <v>204</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="24">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="24.75">
       <c r="A203" s="6" t="s">
         <v>176</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="24.75">
       <c r="A204" s="6" t="s">
         <v>176</v>
       </c>
@@ -4033,10 +4033,10 @@
         <v>206</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="24">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="24.75">
       <c r="A205" s="6" t="s">
         <v>176</v>
       </c>
@@ -4044,10 +4044,10 @@
         <v>207</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="24">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="24.75">
       <c r="A206" s="6" t="s">
         <v>176</v>
       </c>
@@ -4055,10 +4055,10 @@
         <v>208</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="24">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="24.75">
       <c r="A207" s="6" t="s">
         <v>176</v>
       </c>
@@ -4066,10 +4066,10 @@
         <v>209</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="24">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="24.75">
       <c r="A208" s="6" t="s">
         <v>176</v>
       </c>
@@ -4077,10 +4077,10 @@
         <v>210</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="24">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="24.75">
       <c r="A209" s="6" t="s">
         <v>176</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>211</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="24">
@@ -4110,7 +4110,7 @@
         <v>213</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="25.5">

--- a/Interview/leetcode/Questions/FINAL 450.xlsx
+++ b/Interview/leetcode/Questions/FINAL 450.xlsx
@@ -3723,7 +3723,7 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="25.5">
       <c r="A176" s="1"/>
       <c r="B176" s="10"/>
       <c r="C176" s="9"/>
@@ -3780,7 +3780,7 @@
         <v>182</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="24">
@@ -3824,7 +3824,7 @@
         <v>186</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="24">
@@ -3846,10 +3846,10 @@
         <v>188</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="24.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="24">
       <c r="A188" s="6" t="s">
         <v>176</v>
       </c>
@@ -3857,10 +3857,10 @@
         <v>189</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="24.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="24">
       <c r="A189" s="6" t="s">
         <v>176</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="24">
       <c r="A190" s="6" t="s">
         <v>176</v>
       </c>
@@ -3879,10 +3879,10 @@
         <v>191</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="24.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="24">
       <c r="A191" s="6" t="s">
         <v>176</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="24">
       <c r="A192" s="6" t="s">
         <v>176</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="24">
       <c r="A193" s="6" t="s">
         <v>176</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="24">
       <c r="A194" s="6" t="s">
         <v>176</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="24">
       <c r="A195" s="6" t="s">
         <v>176</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="24">
       <c r="A196" s="6" t="s">
         <v>176</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="24">
       <c r="A197" s="6" t="s">
         <v>176</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="24">
       <c r="A198" s="6" t="s">
         <v>176</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="24">
       <c r="A199" s="6" t="s">
         <v>176</v>
       </c>

--- a/Interview/leetcode/Questions/FINAL 450.xlsx
+++ b/Interview/leetcode/Questions/FINAL 450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="479">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -34,6 +34,18 @@
     <t>Array</t>
   </si>
   <si>
+    <t>Product of array except self [IMP]</t>
+  </si>
+  <si>
+    <t>&lt;-&gt;</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence [IMP]</t>
+  </si>
+  <si>
+    <t>Two 2 Sum [IMP]</t>
+  </si>
+  <si>
     <t>Reverse the array</t>
   </si>
   <si>
@@ -67,7 +79,7 @@
     <t>Minimum no. of Jumps to reach end of an array (Jump 1 and Jump 2)</t>
   </si>
   <si>
-    <t>find duplicate in an array of N+1 Integers</t>
+    <t>find duplicate in an array of N+1 Integers [IMP]</t>
   </si>
   <si>
     <t>Merge 2 sorted arrays without using Extra space.</t>
@@ -157,12 +169,12 @@
     <t>Matrix</t>
   </si>
   <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
     <t>Spiral traversal on a Matrix</t>
   </si>
   <si>
-    <t>&lt;-&gt;</t>
-  </si>
-  <si>
     <t>Search an element in a matriix</t>
   </si>
   <si>
@@ -193,6 +205,15 @@
     <t>String</t>
   </si>
   <si>
+    <t>Valid Anagram [IMP]</t>
+  </si>
+  <si>
+    <t>Encode and Decode String [IMP]</t>
+  </si>
+  <si>
+    <t>Group Anagram [IMP]</t>
+  </si>
+  <si>
     <t>Reverse a String</t>
   </si>
   <si>
@@ -208,7 +229,7 @@
     <t>Write a Code to check whether one string is a rotation of another</t>
   </si>
   <si>
-    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+    <t>Write a Program to check whether a string is a valid shuffle of two strings or not (Anagram) [IMP]</t>
   </si>
   <si>
     <t>Count and Say problem</t>
@@ -323,6 +344,9 @@
   </si>
   <si>
     <t>Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t>Top K Frequent Element [IMP]</t>
   </si>
   <si>
     <t>Find first and last positions of an element in a sorted array</t>
@@ -1861,7 +1885,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:C1008"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1907,18 +1931,18 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24">
-      <c r="A6" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24">
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1929,18 +1953,18 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24">
-      <c r="A8" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24">
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1948,7 +1972,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24">
@@ -1956,10 +1980,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24">
@@ -1967,10 +1991,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24">
@@ -1978,10 +2002,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24">
@@ -1989,10 +2013,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24">
@@ -2000,10 +2024,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24">
@@ -2011,10 +2035,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24">
@@ -2022,10 +2046,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24">
@@ -2033,10 +2057,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24">
@@ -2044,10 +2068,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24">
@@ -2055,10 +2079,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24">
@@ -2066,35 +2090,35 @@
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="15.75">
+      <c r="C20" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="15.75">
+      <c r="C21" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="15.75">
+      <c r="C22" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
@@ -2102,7 +2126,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="15.75">
@@ -2110,10 +2134,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="15.75">
@@ -2121,10 +2145,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15.75">
@@ -2132,10 +2156,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="15.75">
@@ -2143,10 +2167,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="15.75">
@@ -2154,10 +2178,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="15.75">
@@ -2165,10 +2189,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="15.75">
@@ -2179,7 +2203,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15.75">
@@ -2190,7 +2214,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15.75">
@@ -2198,10 +2222,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15.75">
@@ -2212,7 +2236,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="15.75">
@@ -2223,7 +2247,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15.75">
@@ -2231,10 +2255,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15.75">
@@ -2242,10 +2266,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15.75">
@@ -2253,10 +2277,10 @@
         <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="15.75">
@@ -2264,10 +2288,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="15.75">
@@ -2275,10 +2299,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15.75">
@@ -2286,10 +2310,10 @@
         <v>5</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.75">
@@ -2297,3892 +2321,3906 @@
         <v>5</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.75">
-      <c r="A42" s="1"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="A42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75">
-      <c r="A43" s="6"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="A43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75">
       <c r="A44" s="6" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75">
-      <c r="A45" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75">
-      <c r="A46" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
       <c r="A47" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75">
       <c r="A48" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">
       <c r="A49" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15.75">
       <c r="A50" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15.75">
       <c r="A51" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="15.75">
       <c r="A52" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="15.75">
       <c r="A53" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="15.75">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="15.75">
-      <c r="A55" s="6"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="9"/>
+      <c r="A55" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="15.75">
       <c r="A56" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="15.75">
       <c r="A57" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="15.75">
-      <c r="A58" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="15.75">
-      <c r="A59" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="10" t="s">
+      <c r="A59" s="6"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="15.75">
-      <c r="A60" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="15.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="15.75">
       <c r="A63" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="15.75">
       <c r="A64" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="15.75">
       <c r="A65" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="15.75">
       <c r="A66" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="15.75">
       <c r="A67" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="15.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="30">
       <c r="A68" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="15.75">
       <c r="A69" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="15.75">
       <c r="A70" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="15.75">
       <c r="A71" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="15.75">
       <c r="A72" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="15.75">
       <c r="A73" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="15.75">
       <c r="A74" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="15.75">
       <c r="A75" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="15.75">
       <c r="A76" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="15.75">
       <c r="A77" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="15.75">
       <c r="A78" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="15.75">
       <c r="A79" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="15.75">
       <c r="A80" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="15.75">
       <c r="A81" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="15.75">
       <c r="A82" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="15.75">
       <c r="A83" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="15.75">
       <c r="A84" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="15.75">
       <c r="A85" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="15.75">
       <c r="A86" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="15.75">
       <c r="A87" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="15.75">
       <c r="A88" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="15.75">
       <c r="A89" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="15.75">
       <c r="A90" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="15.75">
       <c r="A91" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="15.75">
       <c r="A92" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="15.75">
       <c r="A93" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="15.75">
       <c r="A94" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="15.75">
       <c r="A95" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="15.75">
       <c r="A96" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="15.75">
       <c r="A97" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="15.75">
       <c r="A98" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="15.75">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="A99" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="15.75">
-      <c r="A100" s="6"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="9"/>
+      <c r="A100" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="15.75">
       <c r="A101" s="6" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="15.75">
       <c r="A102" s="6" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="15.75">
       <c r="A103" s="6" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="15.75">
       <c r="A104" s="6" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="15.75">
       <c r="A105" s="6" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="15.75">
-      <c r="A106" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="15.75">
-      <c r="A107" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
       <c r="C107" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="15.75">
       <c r="A108" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B108" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="15.75">
       <c r="A109" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="15.75">
       <c r="A110" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="15.75">
       <c r="A111" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="15.75">
       <c r="A112" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="15.75">
       <c r="A113" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="15.75">
       <c r="A114" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="15.75">
       <c r="A115" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>117</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="15.75">
       <c r="A116" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="15.75">
       <c r="A117" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>119</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="15.75">
       <c r="A118" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="15.75">
       <c r="A119" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="15.75">
       <c r="A120" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>122</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="15.75">
       <c r="A121" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="15.75">
       <c r="A122" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="15.75">
       <c r="A123" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="15.75">
       <c r="A124" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="15.75">
       <c r="A125" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="15.75">
       <c r="A126" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="15.75">
       <c r="A127" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="15.75">
       <c r="A128" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="15.75">
       <c r="A129" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="15.75">
       <c r="A130" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="15.75">
       <c r="A131" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="15.75">
       <c r="A132" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="15.75">
       <c r="A133" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="15.75">
       <c r="A134" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="15.75">
       <c r="A135" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="15.75">
       <c r="A136" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="15.75">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
+      <c r="A137" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="15.75">
-      <c r="A138" s="1"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="9"/>
+      <c r="A138" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="15.75">
       <c r="A139" s="6" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="15.75">
       <c r="A140" s="6" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="15.75">
       <c r="A141" s="6" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="15.75">
       <c r="A142" s="6" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="15.75">
       <c r="A143" s="6" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="15.75">
       <c r="A144" s="6" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="15.75">
-      <c r="A145" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="15.75">
-      <c r="A146" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="15.75">
       <c r="A147" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="15.75">
       <c r="A148" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="15.75">
       <c r="A149" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="15.75">
       <c r="A150" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="15.75">
       <c r="A151" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>152</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="15.75">
       <c r="A152" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>153</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="15.75">
       <c r="A153" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="15.75">
       <c r="A154" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>155</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="15.75">
       <c r="A155" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="15.75">
       <c r="A156" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="15.75">
       <c r="A157" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="15.75">
       <c r="A158" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>159</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="15.75">
       <c r="A159" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="15.75">
       <c r="A160" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>161</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="15.75">
       <c r="A161" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>162</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="15.75">
       <c r="A162" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>163</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="15.75">
       <c r="A163" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>164</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="15.75">
       <c r="A164" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B164" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B164" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="15.75">
       <c r="A165" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B165" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B165" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="15.75">
       <c r="A166" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>167</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="15.75">
       <c r="A167" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="15.75">
       <c r="A168" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="15.75">
       <c r="A169" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>170</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="15.75">
       <c r="A170" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>171</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="15.75">
       <c r="A171" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="15.75">
       <c r="A172" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B172" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B172" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="15.75">
       <c r="A173" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B173" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B173" s="10" t="s">
         <v>174</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="15.75">
       <c r="A174" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>175</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="25.5">
-      <c r="A176" s="1"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="15.75">
+      <c r="A175" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="15.75">
+      <c r="A176" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="15.75">
       <c r="A177" s="6" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="15.75">
       <c r="A178" s="6" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>179</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="24">
       <c r="A179" s="6" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="24">
       <c r="A180" s="6" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>181</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="24">
       <c r="A181" s="6" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="24">
       <c r="A182" s="6" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>183</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="24">
-      <c r="A183" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="24">
-      <c r="A184" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>178</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="25.5">
+      <c r="A184" s="1"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="24">
       <c r="A185" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B185" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="24">
       <c r="A186" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="24">
       <c r="A187" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>188</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="24">
       <c r="A188" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>189</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="24">
       <c r="A189" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="24">
       <c r="A190" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>191</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="24">
       <c r="A191" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>192</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="24">
       <c r="A192" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>193</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="24">
       <c r="A193" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>194</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="24">
       <c r="A194" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>195</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="24">
       <c r="A195" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>196</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="24">
       <c r="A196" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="24">
       <c r="A197" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="24">
       <c r="A198" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="24">
       <c r="A199" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B199" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="24">
+      <c r="A200" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B200" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C199" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="24.75">
-      <c r="A200" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B200" s="7" t="s">
+      <c r="C200" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="24">
+      <c r="A201" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B201" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C200" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="24.75">
-      <c r="A201" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B201" s="7" t="s">
+      <c r="C201" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="24">
+      <c r="A202" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B202" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C201" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="24.75">
-      <c r="A202" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B202" s="7" t="s">
+      <c r="C202" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="24">
+      <c r="A203" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B203" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C202" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="24.75">
-      <c r="A203" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B203" s="7" t="s">
+      <c r="C203" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C203" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="24.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="24">
       <c r="A204" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>206</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="24.75">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="24">
       <c r="A205" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>207</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="24.75">
+        <v>205</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="24">
       <c r="A206" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>208</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="24.75">
+        <v>205</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="24">
       <c r="A207" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>209</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="24.75">
+        <v>205</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="24">
       <c r="A208" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>210</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="24.75">
+        <v>205</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="24">
       <c r="A209" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>211</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="24">
       <c r="A210" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>212</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="24">
       <c r="A211" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>213</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="25.5">
-      <c r="A212" s="6"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="25.5">
-      <c r="A213" s="6"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="9"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="24">
+      <c r="A212" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="24">
+      <c r="A213" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="24">
       <c r="A214" s="6" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="24">
       <c r="A215" s="6" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="24">
       <c r="A216" s="6" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="24">
       <c r="A217" s="6" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="24">
       <c r="A218" s="6" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="15.75">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="24">
       <c r="A219" s="6" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="15.75">
-      <c r="A220" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C220" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="15.75">
-      <c r="A221" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B221" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="25.5">
+      <c r="A220" s="6"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="25.5">
+      <c r="A221" s="6"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="24">
+      <c r="A222" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="15.75">
-      <c r="A222" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>223</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="15.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="24">
       <c r="A223" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>224</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="15.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="24">
       <c r="A224" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>225</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="15.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="24">
       <c r="A225" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>226</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="15.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="24">
       <c r="A226" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="15.75">
       <c r="A227" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>228</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="15.75">
       <c r="A228" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>229</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="15.75">
       <c r="A229" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="15.75">
       <c r="A230" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>231</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="15.75">
       <c r="A231" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>232</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="15.75">
       <c r="A232" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>233</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="15.75">
       <c r="A233" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>234</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="15.75">
       <c r="A234" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>235</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="15.75">
       <c r="A235" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>236</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="15.75">
-      <c r="A236" s="1"/>
-      <c r="B236" s="10"/>
-      <c r="C236" s="9"/>
+      <c r="A236" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="15.75">
-      <c r="A237" s="1"/>
-      <c r="B237" s="10"/>
-      <c r="C237" s="9"/>
+      <c r="A237" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="15.75">
       <c r="A238" s="6" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="15.75">
       <c r="A239" s="6" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="15.75">
       <c r="A240" s="6" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="15.75">
       <c r="A241" s="6" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="15.75">
       <c r="A242" s="6" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="15.75">
       <c r="A243" s="6" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="15.75">
-      <c r="A244" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C244" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A244" s="1"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="15.75">
-      <c r="A245" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C245" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A245" s="1"/>
+      <c r="B245" s="10"/>
+      <c r="C245" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="15.75">
       <c r="A246" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B246" s="7" t="s">
         <v>246</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="15.75">
       <c r="A247" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>247</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="15.75">
       <c r="A248" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B248" s="7" t="s">
         <v>248</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="15.75">
       <c r="A249" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>249</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="15.75">
       <c r="A250" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>250</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="15.75">
       <c r="A251" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B251" s="7" t="s">
         <v>251</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="15.75">
       <c r="A252" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B252" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="15.75">
       <c r="A253" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="15.75">
       <c r="A254" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B254" s="7" t="s">
         <v>254</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="15.75">
       <c r="A255" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>255</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="15.75">
       <c r="A256" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>256</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="15.75">
       <c r="A257" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>257</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="15.75">
       <c r="A258" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B258" s="7" t="s">
         <v>258</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="15.75">
       <c r="A259" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>259</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="15.75">
       <c r="A260" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B260" s="7" t="s">
         <v>260</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="15.75">
       <c r="A261" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>261</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="15.75">
       <c r="A262" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>262</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="15.75">
       <c r="A263" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B263" s="7" t="s">
         <v>263</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="15.75">
       <c r="A264" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B264" s="7" t="s">
         <v>264</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="15.75">
       <c r="A265" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>265</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="15.75">
       <c r="A266" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>266</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="15.75">
       <c r="A267" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B267" s="7" t="s">
         <v>267</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="15.75">
       <c r="A268" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>268</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="15.75">
       <c r="A269" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>269</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="15.75">
       <c r="A270" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B270" s="7" t="s">
         <v>270</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="15.75">
       <c r="A271" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>92</v>
+        <v>271</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="15.75">
       <c r="A272" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="15.75">
-      <c r="A273" s="1"/>
-      <c r="B273" s="10"/>
-      <c r="C273" s="9"/>
+      <c r="A273" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="15.75">
-      <c r="A274" s="1"/>
-      <c r="B274" s="10"/>
-      <c r="C274" s="9"/>
+      <c r="A274" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="15.75">
       <c r="A275" s="6" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="15.75">
       <c r="A276" s="6" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="15.75">
       <c r="A277" s="6" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="15.75">
       <c r="A278" s="6" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="15.75">
       <c r="A279" s="6" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="15.75">
       <c r="A280" s="6" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="15.75">
-      <c r="A281" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B281" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C281" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A281" s="1"/>
+      <c r="B281" s="10"/>
+      <c r="C281" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="15.75">
-      <c r="A282" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B282" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C282" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A282" s="1"/>
+      <c r="B282" s="10"/>
+      <c r="C282" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="15.75">
       <c r="A283" s="6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>281</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="15.75">
       <c r="A284" s="6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B284" s="7" t="s">
         <v>282</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="15.75">
       <c r="A285" s="6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B285" s="7" t="s">
         <v>283</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="15.75">
       <c r="A286" s="6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B286" s="7" t="s">
         <v>284</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="15.75">
       <c r="A287" s="6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B287" s="7" t="s">
         <v>285</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="15.75">
       <c r="A288" s="6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B288" s="7" t="s">
         <v>286</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="15.75">
       <c r="A289" s="6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B289" s="7" t="s">
         <v>287</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="15.75">
       <c r="A290" s="6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B290" s="7" t="s">
         <v>288</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="15.75">
       <c r="A291" s="6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B291" s="7" t="s">
         <v>289</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="15.75">
       <c r="A292" s="6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>290</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="15.75">
       <c r="A293" s="6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B293" s="7" t="s">
         <v>291</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="15.75">
-      <c r="A294" s="1"/>
-      <c r="B294" s="10"/>
-      <c r="C294" s="9"/>
+      <c r="A294" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="15.75">
-      <c r="A295" s="1"/>
-      <c r="B295" s="10"/>
-      <c r="C295" s="9"/>
+      <c r="A295" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="15.75">
       <c r="A296" s="6" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="15.75">
       <c r="A297" s="6" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="15.75">
       <c r="A298" s="6" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="15.75">
       <c r="A299" s="6" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="15.75">
       <c r="A300" s="6" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="15.75">
       <c r="A301" s="6" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="15.75">
-      <c r="A302" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B302" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C302" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A302" s="1"/>
+      <c r="B302" s="10"/>
+      <c r="C302" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="15.75">
-      <c r="A303" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B303" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C303" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A303" s="1"/>
+      <c r="B303" s="10"/>
+      <c r="C303" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="15.75">
       <c r="A304" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B304" s="7" t="s">
         <v>301</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="15.75">
       <c r="A305" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>302</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="15.75">
       <c r="A306" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B306" s="7" t="s">
         <v>303</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="15.75">
       <c r="A307" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B307" s="7" t="s">
         <v>304</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="15.75">
       <c r="A308" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B308" s="7" t="s">
         <v>305</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="15.75">
       <c r="A309" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B309" s="7" t="s">
         <v>306</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="15.75">
       <c r="A310" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B310" s="7" t="s">
         <v>307</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="15.75">
       <c r="A311" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B311" s="7" t="s">
         <v>308</v>
       </c>
       <c r="C311" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="15.75">
       <c r="A312" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B312" s="7" t="s">
         <v>309</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="15.75">
       <c r="A313" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B313" s="7" t="s">
         <v>310</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="15.75">
       <c r="A314" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B314" s="7" t="s">
         <v>311</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="15.75">
       <c r="A315" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B315" s="7" t="s">
         <v>312</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="15.75">
       <c r="A316" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B316" s="7" t="s">
         <v>313</v>
       </c>
       <c r="C316" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="15.75">
       <c r="A317" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B317" s="7" t="s">
         <v>314</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="15.75">
       <c r="A318" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B318" s="7" t="s">
         <v>315</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="15.75">
       <c r="A319" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B319" s="7" t="s">
         <v>316</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="15.75">
       <c r="A320" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B320" s="7" t="s">
         <v>317</v>
       </c>
       <c r="C320" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="15.75">
       <c r="A321" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B321" s="7" t="s">
         <v>318</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="15.75">
       <c r="A322" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B322" s="7" t="s">
         <v>319</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="15.75">
       <c r="A323" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B323" s="7" t="s">
         <v>320</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="15.75">
       <c r="A324" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B324" s="7" t="s">
         <v>321</v>
       </c>
       <c r="C324" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="15.75">
       <c r="A325" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B325" s="7" t="s">
         <v>322</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="15.75">
       <c r="A326" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B326" s="7" t="s">
         <v>323</v>
       </c>
       <c r="C326" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="15.75">
       <c r="A327" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B327" s="7" t="s">
         <v>324</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="15.75">
       <c r="A328" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B328" s="7" t="s">
         <v>325</v>
       </c>
       <c r="C328" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="15.75">
       <c r="A329" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B329" s="7" t="s">
         <v>326</v>
       </c>
       <c r="C329" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="15.75">
       <c r="A330" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B330" s="7" t="s">
         <v>327</v>
       </c>
       <c r="C330" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="15.75">
       <c r="A331" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B331" s="7" t="s">
         <v>328</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="15.75">
       <c r="A332" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B332" s="7" t="s">
         <v>329</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="15.75">
       <c r="A333" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B333" s="7" t="s">
         <v>330</v>
       </c>
       <c r="C333" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="15.75">
-      <c r="A334" s="1"/>
-      <c r="B334" s="10"/>
-      <c r="C334" s="9"/>
+      <c r="A334" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C334" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="15.75">
-      <c r="A335" s="1"/>
-      <c r="B335" s="10"/>
-      <c r="C335" s="9"/>
+      <c r="A335" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="15.75">
       <c r="A336" s="6" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C336" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="15.75">
       <c r="A337" s="6" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C337" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="15.75">
       <c r="A338" s="6" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C338" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="15.75">
       <c r="A339" s="6" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C339" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="15.75">
       <c r="A340" s="6" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C340" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="15.75">
       <c r="A341" s="6" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C341" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="15.75">
-      <c r="A342" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B342" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C342" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A342" s="1"/>
+      <c r="B342" s="10"/>
+      <c r="C342" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="15.75">
-      <c r="A343" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B343" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C343" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A343" s="1"/>
+      <c r="B343" s="10"/>
+      <c r="C343" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="15.75">
       <c r="A344" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B344" s="7" t="s">
         <v>340</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="15.75">
       <c r="A345" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B345" s="7" t="s">
         <v>341</v>
       </c>
       <c r="C345" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="15.75">
       <c r="A346" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B346" s="7" t="s">
         <v>342</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="15.75">
       <c r="A347" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B347" s="7" t="s">
         <v>343</v>
       </c>
       <c r="C347" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="15.75">
       <c r="A348" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B348" s="7" t="s">
         <v>344</v>
       </c>
       <c r="C348" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="15.75">
       <c r="A349" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B349" s="7" t="s">
         <v>345</v>
       </c>
       <c r="C349" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="15.75">
       <c r="A350" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B350" s="7" t="s">
         <v>346</v>
       </c>
       <c r="C350" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="15.75">
       <c r="A351" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B351" s="7" t="s">
         <v>347</v>
       </c>
       <c r="C351" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="15.75">
       <c r="A352" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B352" s="7" t="s">
         <v>348</v>
       </c>
       <c r="C352" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="15.75">
       <c r="A353" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B353" s="7" t="s">
         <v>349</v>
       </c>
       <c r="C353" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="15.75">
-      <c r="A354" s="1"/>
-      <c r="B354" s="10"/>
-      <c r="C354" s="9"/>
+      <c r="A354" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B354" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C354" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="15.75">
-      <c r="A355" s="1"/>
-      <c r="B355" s="10"/>
-      <c r="C355" s="9"/>
+      <c r="A355" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C355" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="15.75">
       <c r="A356" s="6" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="15.75">
       <c r="A357" s="6" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C357" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="15.75">
       <c r="A358" s="6" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C358" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="15.75">
       <c r="A359" s="6" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C359" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="15.75">
       <c r="A360" s="6" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="15.75">
       <c r="A361" s="6" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C361" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="15.75">
-      <c r="A362" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="B362" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C362" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A362" s="1"/>
+      <c r="B362" s="10"/>
+      <c r="C362" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="15.75">
-      <c r="A363" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="B363" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C363" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A363" s="1"/>
+      <c r="B363" s="10"/>
+      <c r="C363" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="15.75">
       <c r="A364" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B364" s="7" t="s">
         <v>359</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="15.75">
       <c r="A365" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B365" s="7" t="s">
         <v>360</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="15.75">
       <c r="A366" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B366" s="7" t="s">
         <v>361</v>
       </c>
       <c r="C366" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="15.75">
       <c r="A367" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B367" s="7" t="s">
         <v>362</v>
       </c>
       <c r="C367" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="15.75">
       <c r="A368" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B368" s="7" t="s">
         <v>363</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="15.75">
       <c r="A369" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B369" s="7" t="s">
         <v>364</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="15.75">
       <c r="A370" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B370" s="7" t="s">
         <v>365</v>
       </c>
       <c r="C370" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="15.75">
       <c r="A371" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B371" s="7" t="s">
         <v>366</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="15.75">
       <c r="A372" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B372" s="7" t="s">
         <v>367</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="15.75">
       <c r="A373" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B373" s="7" t="s">
         <v>368</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="15.75">
       <c r="A374" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B374" s="7" t="s">
         <v>369</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="15.75">
       <c r="A375" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B375" s="7" t="s">
         <v>370</v>
       </c>
       <c r="C375" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="15.75">
       <c r="A376" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B376" s="7" t="s">
         <v>371</v>
       </c>
       <c r="C376" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="15.75">
       <c r="A377" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B377" s="7" t="s">
         <v>372</v>
       </c>
       <c r="C377" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="15.75">
       <c r="A378" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B378" s="7" t="s">
         <v>373</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="15.75">
       <c r="A379" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B379" s="7" t="s">
         <v>374</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="15.75">
       <c r="A380" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B380" s="7" t="s">
         <v>375</v>
       </c>
       <c r="C380" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="15.75">
       <c r="A381" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B381" s="7" t="s">
         <v>376</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="15.75">
       <c r="A382" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B382" s="7" t="s">
         <v>377</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="15.75">
       <c r="A383" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B383" s="7" t="s">
         <v>378</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="15.75">
       <c r="A384" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B384" s="7" t="s">
         <v>379</v>
       </c>
       <c r="C384" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="15.75">
       <c r="A385" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B385" s="7" t="s">
         <v>380</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="15.75">
       <c r="A386" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B386" s="7" t="s">
         <v>381</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="15.75">
       <c r="A387" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B387" s="7" t="s">
         <v>382</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="15.75">
       <c r="A388" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B388" s="7" t="s">
         <v>383</v>
       </c>
       <c r="C388" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="15.75">
       <c r="A389" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B389" s="7" t="s">
         <v>384</v>
       </c>
       <c r="C389" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="15.75">
       <c r="A390" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C390" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="15.75">
       <c r="A391" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="15.75">
       <c r="A392" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C392" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="15.75">
       <c r="A393" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="15.75">
       <c r="A394" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="15.75">
       <c r="A395" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="15.75">
       <c r="A396" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C396" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="15.75">
       <c r="A397" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="15.75">
       <c r="A398" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B398" s="7" t="s">
         <v>392</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="15.75">
       <c r="A399" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B399" s="7" t="s">
         <v>393</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="15.75">
-      <c r="A400" s="1"/>
-      <c r="B400" s="10"/>
-      <c r="C400" s="9"/>
+      <c r="A400" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C400" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="15.75">
-      <c r="A401" s="1"/>
-      <c r="B401" s="10"/>
-      <c r="C401" s="9"/>
+      <c r="A401" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C401" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="15.75">
       <c r="A402" s="6" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C402" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="15.75">
       <c r="A403" s="6" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C403" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="15.75">
       <c r="A404" s="6" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C404" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="15.75">
       <c r="A405" s="6" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>94</v>
+        <v>399</v>
       </c>
       <c r="C405" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="15.75">
       <c r="A406" s="6" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C406" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="15.75">
       <c r="A407" s="6" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C407" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="15.75">
@@ -6197,823 +6235,859 @@
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="15.75">
       <c r="A410" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C410" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="15.75">
       <c r="A411" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C411" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="15.75">
       <c r="A412" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C412" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="15.75">
       <c r="A413" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>404</v>
+        <v>101</v>
       </c>
       <c r="C413" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="15.75">
       <c r="A414" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C414" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="15.75">
       <c r="A415" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C415" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="15.75">
-      <c r="A416" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B416" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C416" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A416" s="1"/>
+      <c r="B416" s="10"/>
+      <c r="C416" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="15.75">
-      <c r="A417" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B417" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C417" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A417" s="1"/>
+      <c r="B417" s="10"/>
+      <c r="C417" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="15.75">
       <c r="A418" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C418" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="15.75">
       <c r="A419" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C419" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="15.75">
       <c r="A420" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C420" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="15.75">
       <c r="A421" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C421" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="15.75">
       <c r="A422" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C422" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="15.75">
       <c r="A423" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C423" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="15.75">
       <c r="A424" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C424" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="15.75">
       <c r="A425" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>415</v>
+        <v>288</v>
       </c>
       <c r="C425" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="15.75">
       <c r="A426" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B426" s="7" t="s">
         <v>416</v>
       </c>
       <c r="C426" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="15.75">
       <c r="A427" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B427" s="7" t="s">
         <v>417</v>
       </c>
       <c r="C427" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="15.75">
       <c r="A428" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B428" s="7" t="s">
         <v>418</v>
       </c>
       <c r="C428" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="15.75">
       <c r="A429" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B429" s="7" t="s">
         <v>419</v>
       </c>
       <c r="C429" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="15.75">
       <c r="A430" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B430" s="7" t="s">
         <v>420</v>
       </c>
       <c r="C430" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="15.75">
       <c r="A431" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B431" s="7" t="s">
         <v>421</v>
       </c>
       <c r="C431" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="15.75">
       <c r="A432" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B432" s="7" t="s">
         <v>422</v>
       </c>
       <c r="C432" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="15.75">
       <c r="A433" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B433" s="7" t="s">
         <v>423</v>
       </c>
       <c r="C433" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="15.75">
       <c r="A434" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B434" s="7" t="s">
         <v>424</v>
       </c>
       <c r="C434" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="15.75">
       <c r="A435" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B435" s="7" t="s">
         <v>425</v>
       </c>
       <c r="C435" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="15.75">
       <c r="A436" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B436" s="7" t="s">
         <v>426</v>
       </c>
       <c r="C436" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="15.75">
       <c r="A437" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B437" s="7" t="s">
         <v>427</v>
       </c>
       <c r="C437" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="15.75">
       <c r="A438" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B438" s="7" t="s">
         <v>428</v>
       </c>
       <c r="C438" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="15.75">
       <c r="A439" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B439" s="7" t="s">
         <v>429</v>
       </c>
       <c r="C439" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="15.75">
       <c r="A440" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B440" s="7" t="s">
         <v>430</v>
       </c>
       <c r="C440" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="15.75">
       <c r="A441" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B441" s="7" t="s">
         <v>431</v>
       </c>
       <c r="C441" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="15.75">
       <c r="A442" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B442" s="7" t="s">
         <v>432</v>
       </c>
       <c r="C442" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="15.75">
       <c r="A443" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B443" s="7" t="s">
         <v>433</v>
       </c>
       <c r="C443" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="15.75">
       <c r="A444" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B444" s="7" t="s">
         <v>434</v>
       </c>
       <c r="C444" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="15.75">
       <c r="A445" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B445" s="7" t="s">
         <v>435</v>
       </c>
       <c r="C445" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="15.75">
       <c r="A446" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B446" s="7" t="s">
         <v>436</v>
       </c>
       <c r="C446" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="15.75">
       <c r="A447" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B447" s="7" t="s">
         <v>437</v>
       </c>
       <c r="C447" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="15.75">
       <c r="A448" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B448" s="7" t="s">
         <v>438</v>
       </c>
       <c r="C448" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="15.75">
       <c r="A449" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B449" s="7" t="s">
         <v>439</v>
       </c>
       <c r="C449" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="15.75">
       <c r="A450" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B450" s="7" t="s">
         <v>440</v>
       </c>
       <c r="C450" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="15.75">
       <c r="A451" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B451" s="7" t="s">
         <v>441</v>
       </c>
       <c r="C451" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="15.75">
       <c r="A452" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B452" s="7" t="s">
         <v>442</v>
       </c>
       <c r="C452" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="15.75">
       <c r="A453" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B453" s="7" t="s">
         <v>443</v>
       </c>
       <c r="C453" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="15.75">
       <c r="A454" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B454" s="7" t="s">
         <v>444</v>
       </c>
       <c r="C454" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="15.75">
       <c r="A455" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B455" s="7" t="s">
         <v>445</v>
       </c>
       <c r="C455" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="15.75">
       <c r="A456" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B456" s="7" t="s">
         <v>446</v>
       </c>
       <c r="C456" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="15.75">
       <c r="A457" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B457" s="7" t="s">
         <v>447</v>
       </c>
       <c r="C457" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="15.75">
       <c r="A458" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B458" s="7" t="s">
         <v>448</v>
       </c>
       <c r="C458" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="15.75">
       <c r="A459" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B459" s="7" t="s">
         <v>449</v>
       </c>
       <c r="C459" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="15.75">
       <c r="A460" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B460" s="7" t="s">
         <v>450</v>
       </c>
       <c r="C460" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="15.75">
       <c r="A461" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B461" s="7" t="s">
         <v>451</v>
       </c>
       <c r="C461" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="15.75">
       <c r="A462" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B462" s="7" t="s">
         <v>452</v>
       </c>
       <c r="C462" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="15.75">
       <c r="A463" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B463" s="7" t="s">
         <v>453</v>
       </c>
       <c r="C463" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="15.75">
       <c r="A464" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B464" s="7" t="s">
         <v>454</v>
       </c>
       <c r="C464" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="15.75">
       <c r="A465" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B465" s="7" t="s">
         <v>455</v>
       </c>
       <c r="C465" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="15.75">
       <c r="A466" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B466" s="7" t="s">
         <v>456</v>
       </c>
       <c r="C466" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="15.75">
       <c r="A467" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B467" s="7" t="s">
         <v>457</v>
       </c>
       <c r="C467" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="15.75">
       <c r="A468" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B468" s="7" t="s">
         <v>458</v>
       </c>
       <c r="C468" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="15.75">
       <c r="A469" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B469" s="7" t="s">
         <v>459</v>
       </c>
       <c r="C469" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="15.75">
-      <c r="A470" s="1"/>
-      <c r="B470" s="10"/>
-      <c r="C470" s="9"/>
+      <c r="A470" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B470" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C470" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="15.75">
-      <c r="A471" s="6"/>
-      <c r="B471" s="10"/>
-      <c r="C471" s="9"/>
+      <c r="A471" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B471" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C471" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="15.75">
       <c r="A472" s="6" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C472" s="8" t="s">
-        <v>48</v>
+        <v>462</v>
+      </c>
+      <c r="C472" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="15.75">
       <c r="A473" s="6" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C473" s="8" t="s">
-        <v>48</v>
+        <v>463</v>
+      </c>
+      <c r="C473" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="15.75">
       <c r="A474" s="6" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="C474" s="8" t="s">
-        <v>48</v>
+        <v>464</v>
+      </c>
+      <c r="C474" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="15.75">
       <c r="A475" s="6" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="C475" s="8" t="s">
-        <v>48</v>
+        <v>465</v>
+      </c>
+      <c r="C475" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="15.75">
       <c r="A476" s="6" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="C476" s="8" t="s">
-        <v>48</v>
+        <v>466</v>
+      </c>
+      <c r="C476" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="15.75">
       <c r="A477" s="6" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C477" s="8" t="s">
-        <v>48</v>
+        <v>467</v>
+      </c>
+      <c r="C477" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="15.75">
-      <c r="A478" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B478" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="C478" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="A478" s="1"/>
+      <c r="B478" s="10"/>
+      <c r="C478" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="15.75">
-      <c r="A479" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B479" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C479" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A479" s="6"/>
+      <c r="B479" s="10"/>
+      <c r="C479" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="15.75">
       <c r="A480" s="6" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B480" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C480" s="9" t="s">
-        <v>48</v>
+      <c r="C480" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="15.75">
       <c r="A481" s="6" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B481" s="7" t="s">
         <v>470</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="15.75">
-      <c r="A482" s="1"/>
-      <c r="B482" s="1"/>
-      <c r="C482" s="1"/>
+      <c r="A482" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B482" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C482" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="15.75">
-      <c r="A483" s="1"/>
-      <c r="B483" s="1"/>
-      <c r="C483" s="1"/>
+      <c r="A483" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B483" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C483" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="15.75">
-      <c r="A484" s="1"/>
-      <c r="B484" s="1"/>
-      <c r="C484" s="1"/>
+      <c r="A484" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B484" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C484" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="15.75">
-      <c r="A485" s="1"/>
-      <c r="B485" s="1"/>
-      <c r="C485" s="1"/>
+      <c r="A485" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B485" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C485" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="15.75">
-      <c r="A486" s="1"/>
-      <c r="B486" s="1"/>
-      <c r="C486" s="1"/>
+      <c r="A486" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B486" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C486" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="15.75">
-      <c r="A487" s="1"/>
-      <c r="B487" s="1"/>
-      <c r="C487" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="15.75">
-      <c r="A488" s="1"/>
-      <c r="B488" s="1"/>
-      <c r="C488" s="1"/>
+      <c r="A487" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B487" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C487" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="19.5">
+      <c r="A488" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B488" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C488" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="15.75">
-      <c r="A489" s="1"/>
-      <c r="B489" s="1"/>
-      <c r="C489" s="1"/>
+      <c r="A489" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B489" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C489" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="15.75">
       <c r="A490" s="1"/>
@@ -9570,6 +9644,46 @@
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="1001" customHeight="1" ht="15.75">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1002" customHeight="1" ht="15.75">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1003" customHeight="1" ht="15.75">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="1"/>
+      <c r="C1003" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1004" customHeight="1" ht="15.75">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1005" customHeight="1" ht="15.75">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1006" customHeight="1" ht="15.75">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1007" customHeight="1" ht="15.75">
+      <c r="A1007" s="1"/>
+      <c r="B1007" s="1"/>
+      <c r="C1007" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1008" customHeight="1" ht="15.75">
+      <c r="A1008" s="1"/>
+      <c r="B1008" s="1"/>
+      <c r="C1008" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
